--- a/folder_template/config.xlsx
+++ b/folder_template/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/u0134243_thomasmore_be/Documents/Programming Essentials/Canvas configuratie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joren\Documents\repositories\CanvasCourseScaffolder\folder_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{4D654BD7-B54C-4C39-B606-511C93A0CB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{799E5F67-3743-4650-B513-16F466130B6C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6BD74EB-D8CA-4C19-8319-0491DC51BF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42975" yWindow="1365" windowWidth="28800" windowHeight="19305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -99,9 +99,6 @@
     <t>Theorie (pptx)</t>
   </si>
   <si>
-    <t>OpdrachtID (indien opdracht)</t>
-  </si>
-  <si>
     <t>Link (indien externe url)</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Joren Synaeve, Joeri Verlooy</t>
   </si>
   <si>
-    <t>ToetsID (indien toets)</t>
-  </si>
-  <si>
     <t>Feedback en begeleiding</t>
   </si>
   <si>
@@ -268,6 +262,12 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Opdracht (indien opdracht)</t>
+  </si>
+  <si>
+    <t>Toets (indien toets)</t>
   </si>
 </sst>
 </file>
@@ -325,7 +325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -338,10 +338,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,9 +422,9 @@
     <tableColumn id="2" xr3:uid="{54A84E46-41BB-4012-84B6-2A4A1FB473F4}" name="Type"/>
     <tableColumn id="7" xr3:uid="{0D1BF778-48C7-4B21-B7BE-8990087F8BB9}" name="Weergavenaam"/>
     <tableColumn id="11" xr3:uid="{5D3487C8-079C-4B37-929B-86D151D07C80}" name="Gepubliceerd (0 of 1)"/>
-    <tableColumn id="8" xr3:uid="{8BF14FEB-D66C-40F2-A520-28E3D25DE03D}" name="OpdrachtID (indien opdracht)"/>
+    <tableColumn id="8" xr3:uid="{8BF14FEB-D66C-40F2-A520-28E3D25DE03D}" name="Opdracht (indien opdracht)"/>
     <tableColumn id="9" xr3:uid="{AB31A007-9997-44CA-85E7-F51F89C6EA51}" name="Link (indien externe url)"/>
-    <tableColumn id="12" xr3:uid="{A4C6EB42-0E3A-461A-A526-712FC10E2F84}" name="ToetsID (indien toets)"/>
+    <tableColumn id="12" xr3:uid="{A4C6EB42-0E3A-461A-A526-712FC10E2F84}" name="Toets (indien toets)"/>
     <tableColumn id="3" xr3:uid="{6BB9FB76-0628-413E-8494-657C4EE45BC1}" name="Naam van bestand (indien bestand)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -712,9 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -724,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1">
         <v>10139</v>
@@ -732,34 +726,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -767,8 +761,9 @@
     <hyperlink ref="B4" r:id="rId1" xr:uid="{4F11ECA4-EDE3-44D6-8FF4-1F66D4CA68FC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -849,7 +844,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -870,7 +865,7 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -888,7 +883,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -896,7 +891,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1">
         <v>45116.999305555553</v>
@@ -908,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -916,7 +911,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1">
         <v>45122.999305555553</v>
@@ -925,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,7 +928,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
         <v>45198.999305555553</v>
@@ -942,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -950,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <v>45198.999305555553</v>
@@ -959,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -967,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <v>45198.999305555553</v>
@@ -976,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,14 +979,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1"/>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -999,14 +994,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1"/>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1014,14 +1009,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1029,14 +1024,14 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1"/>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1044,13 +1039,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1064,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1072,13 +1067,13 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1086,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1100,13 +1095,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1114,13 +1109,13 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1128,13 +1123,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1142,13 +1137,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1156,13 +1151,13 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1170,13 +1165,13 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1184,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1198,13 +1193,13 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1239,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1346,7 +1341,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1381,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,7 +1394,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>14</v>
@@ -1408,19 +1403,19 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -1437,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1445,7 +1440,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1459,13 +1454,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1473,18 +1468,18 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -1492,10 +1487,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1521,7 +1516,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,68 +1528,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
